--- a/B421/startup/Civil/CATCIVBridgeData.xlsx
+++ b/B421/startup/Civil/CATCIVBridgeData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XUS\200-CODE\Dassault_Systemes\3DEXPERIENCE_XUS_Code\CAAV6BatchRun\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\010_Gitee\3DEXPERIENCE_Apps\B421\startup\Civil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F0654-E132-4E6A-ACEB-10166A63B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE93111-D35A-4D45-BBAE-231B92071413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DesignData" sheetId="7" r:id="rId1"/>
@@ -807,33 +807,33 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H1" sqref="H1:Q1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="9.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.34765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1484375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.046875" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="7.19921875" style="41" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44921875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.25" style="41" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" style="1" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="26.3984375" style="1" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="26.375" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="7" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -981,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="28" customFormat="1" ht="38.1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" s="28" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>0</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="W4" s="18"/>
       <c r="X4" s="20"/>
     </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1216,7 +1216,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="12"/>
     </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="12"/>
     </row>
-    <row r="10" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1336,7 +1336,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="12"/>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="12"/>
     </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="W12" s="10"/>
       <c r="X12" s="12"/>
     </row>
-    <row r="13" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="12"/>
     </row>
-    <row r="14" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="W14" s="10"/>
       <c r="X14" s="12"/>
     </row>
-    <row r="15" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="W15" s="10"/>
       <c r="X15" s="12"/>
     </row>
-    <row r="16" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="W16" s="10"/>
       <c r="X16" s="12"/>
     </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>13</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="W17" s="10"/>
       <c r="X17" s="12"/>
     </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:24" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>14</v>
       </c>
@@ -1656,149 +1656,149 @@
       <c r="W18" s="10"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="J20" s="4"/>
       <c r="L20" s="42"/>
       <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="W21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="W22" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="W24" s="3"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="W25" s="3"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="W26" s="3"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="W27" s="3"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="W30" s="3"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="W31" s="3"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="W32" s="3"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="W33" s="3"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="W34" s="3"/>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="W35" s="3"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="W36" s="3"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="W37" s="3"/>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="W38" s="3"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="39" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="W40" s="3"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="41" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="W41" s="3"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="42" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="W42" s="3"/>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="W44" s="3"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="W45" s="3"/>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="W46" s="3"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="W47" s="3"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="W48" s="3"/>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="W49" s="3"/>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="W50" s="3"/>
     </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="W51" s="3"/>
     </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="W52" s="3"/>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="W53" s="3"/>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.5">
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="W54" s="3"/>
     </row>
